--- a/02575_data_mm.xlsx
+++ b/02575_data_mm.xlsx
@@ -14,87 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>HN_001A</t>
-  </si>
-  <si>
-    <t>HN_002A</t>
-  </si>
-  <si>
-    <t>HN_003A</t>
-  </si>
-  <si>
-    <t>HN_005A</t>
-  </si>
-  <si>
-    <t>HN_010A</t>
-  </si>
-  <si>
-    <t>HN_020A</t>
-  </si>
-  <si>
-    <t>HN_030A</t>
-  </si>
-  <si>
-    <t>HN_050A</t>
-  </si>
-  <si>
-    <t>HN_100A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>precipitation_time / min</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>0030</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
-    <t>0060</t>
-  </si>
-  <si>
-    <t>0090</t>
-  </si>
-  <si>
-    <t>0120</t>
-  </si>
-  <si>
-    <t>0180</t>
-  </si>
-  <si>
-    <t>0240</t>
-  </si>
-  <si>
-    <t>0360</t>
-  </si>
-  <si>
-    <t>0540</t>
-  </si>
-  <si>
-    <t>0720</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>2880</t>
-  </si>
-  <si>
-    <t>4320</t>
   </si>
 </sst>
 </file>
@@ -460,39 +382,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+      <c r="A2" s="1">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>4.9</v>
@@ -523,8 +445,8 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="1">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>7.6</v>
@@ -555,8 +477,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" s="1">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>10.6</v>
@@ -587,8 +509,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+      <c r="A5" s="1">
+        <v>30</v>
       </c>
       <c r="B5">
         <v>12.3</v>
@@ -619,8 +541,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+      <c r="A6" s="1">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>13.7</v>
@@ -651,8 +573,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+      <c r="A7" s="1">
+        <v>60</v>
       </c>
       <c r="B7">
         <v>14.5</v>
@@ -683,8 +605,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+      <c r="A8" s="1">
+        <v>90</v>
       </c>
       <c r="B8">
         <v>15.8</v>
@@ -715,8 +637,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+      <c r="A9" s="1">
+        <v>120</v>
       </c>
       <c r="B9">
         <v>16.8</v>
@@ -747,8 +669,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
+      <c r="A10" s="1">
+        <v>180</v>
       </c>
       <c r="B10">
         <v>18.3</v>
@@ -779,8 +701,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+      <c r="A11" s="1">
+        <v>240</v>
       </c>
       <c r="B11">
         <v>19.4</v>
@@ -811,8 +733,8 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
+      <c r="A12" s="1">
+        <v>360</v>
       </c>
       <c r="B12">
         <v>21.1</v>
@@ -843,8 +765,8 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
+      <c r="A13" s="1">
+        <v>540</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -875,8 +797,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+      <c r="A14" s="1">
+        <v>720</v>
       </c>
       <c r="B14">
         <v>24.5</v>
@@ -907,8 +829,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
+      <c r="A15" s="1">
+        <v>1080</v>
       </c>
       <c r="B15">
         <v>26.6</v>
@@ -939,8 +861,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
+      <c r="A16" s="1">
+        <v>1440</v>
       </c>
       <c r="B16">
         <v>28.3</v>
@@ -971,8 +893,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+      <c r="A17" s="1">
+        <v>2880</v>
       </c>
       <c r="B17">
         <v>34.4</v>
@@ -1003,8 +925,8 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
+      <c r="A18" s="1">
+        <v>4320</v>
       </c>
       <c r="B18">
         <v>38.5</v>
